--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84267.86584059944</v>
+        <v>75751.29148575064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737736</v>
+        <v>18158024.90737735</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3638443.417578385</v>
+        <v>3565372.401554613</v>
       </c>
     </row>
     <row r="11">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>38.69730777810975</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>227.0672929610291</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2327,16 +2329,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.668436524808382</v>
       </c>
       <c r="T23" t="n">
-        <v>89.15668158090618</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2400,19 +2402,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E24" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>15.09023863101106</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>195.3773027531635</v>
@@ -2460,7 +2462,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>174.5627220424961</v>
+        <v>17.88272706744235</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>19.59015717729969</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>58.87768236128002</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>89.89083853279845</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>343.6465684039911</v>
       </c>
     </row>
     <row r="27">
@@ -2637,19 +2639,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D27" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
@@ -2697,10 +2699,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>157.8079400398083</v>
+        <v>105.6509262726095</v>
       </c>
     </row>
     <row r="28">
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>143.840129933826</v>
       </c>
       <c r="D28" t="n">
-        <v>143.5512863717284</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>340.5116906995511</v>
       </c>
       <c r="G29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>37.58178447872354</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.01646378673726</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
@@ -2883,13 +2885,13 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
@@ -2937,7 +2939,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>157.8079400398083</v>
+        <v>88.19971375792814</v>
       </c>
     </row>
     <row r="31">
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.884707524312</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3029,20 +3031,20 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
@@ -3077,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>269.555124012547</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>219.9483858441846</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3114,10 +3116,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
         <v>105.9202115588047</v>
@@ -3126,7 +3128,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,10 +3161,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3171,10 +3173,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>15.76907373316809</v>
       </c>
       <c r="Y33" t="n">
-        <v>68.15054017782903</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>148.07723763044</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3202,7 +3204,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.9926436500971</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.84715600543174</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>89.89083853279811</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>174.5627220424961</v>
+        <v>69.12146513934047</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.55539719644235</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3430,7 +3432,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>132.8644256605614</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C38" t="n">
         <v>390.1527797502169</v>
@@ -3509,16 +3511,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="E38" t="n">
-        <v>35.84715600543184</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>390.1527797502169</v>
+        <v>343.646568403991</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
-        <v>57.11049760307122</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>106.1331548337414</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
@@ -3676,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>43.14382524393761</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>13.88126300749924</v>
       </c>
     </row>
     <row r="41">
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>35.84715600543184</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.137221949992519</v>
       </c>
       <c r="Y41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,19 +3872,19 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V42" t="n">
-        <v>52.78076342756878</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>211.1008365810345</v>
+        <v>105.8596795890361</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>44.21277235333799</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>62.17807828502634</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>351.9084913642043</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>126.6742602997031</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4119,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4198,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>12.20793317630082</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>425.3059392994284</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>361.3007174531585</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>747.5519694058733</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>747.5519694058733</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1133.803221358588</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1520.054473311303</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1213.49337313825</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>819.3996562188394</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>819.3996562188394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>657.6354495973663</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>523.640378346312</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>406.7432205657044</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>286.2504045580324</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>177.290524740537</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>70.30041205487569</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>224.0250799426506</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>610.2763318953653</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5490957328082</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>758.5490957328082</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>758.5490957328082</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1144.800347685523</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1531.051599638238</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1531.051599638238</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1346.899591993901</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1133.66642373023</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>957.340441869123</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>797.938482232953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.29477178522787</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>199.8470995074659</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>459.7441997875264</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>749.0082562280197</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1029.84703862227</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1289.407648948744</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1495.083089198357</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1560.611119000868</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1321.06237997757</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.264232523694</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>764.3784874632158</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>485.3088229720902</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>255.9479209912527</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.21222238001735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="C23" t="n">
-        <v>819.3996562188394</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="D23" t="n">
-        <v>819.3996562188394</v>
+        <v>905.7514189017662</v>
       </c>
       <c r="E23" t="n">
-        <v>425.3059392994284</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F23" t="n">
-        <v>31.21222238001735</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="G23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H23" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5993,46 +5995,46 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L23" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M23" t="n">
-        <v>671.6489458004863</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="N23" t="n">
-        <v>671.6489458004863</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O23" t="n">
-        <v>1057.900197753201</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P23" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q23" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R23" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1560.611119000868</v>
+        <v>1556.905627561667</v>
       </c>
       <c r="T23" t="n">
-        <v>1470.55386487874</v>
+        <v>1556.905627561667</v>
       </c>
       <c r="U23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="V23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="W23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="X23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
       <c r="Y23" t="n">
-        <v>1213.49337313825</v>
+        <v>1299.845135821177</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>300.9427749225932</v>
+        <v>618.5472599225079</v>
       </c>
       <c r="C24" t="n">
-        <v>166.9477036715389</v>
+        <v>484.5521886714537</v>
       </c>
       <c r="D24" t="n">
-        <v>166.9477036715389</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E24" t="n">
-        <v>46.45488766386691</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F24" t="n">
-        <v>46.45488766386691</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G24" t="n">
-        <v>46.45488766386691</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H24" t="n">
         <v>31.21222238001735</v>
@@ -6072,16 +6074,16 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L24" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M24" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N24" t="n">
-        <v>996.52758384808</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O24" t="n">
-        <v>1382.778835800795</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P24" t="n">
         <v>1531.051599638238</v>
@@ -6096,22 +6098,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T24" t="n">
-        <v>1401.269255187876</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U24" t="n">
-        <v>1203.918444326094</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V24" t="n">
-        <v>990.2069173191283</v>
+        <v>1149.54878113212</v>
       </c>
       <c r="W24" t="n">
-        <v>776.973749055457</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="X24" t="n">
-        <v>600.6477671943499</v>
+        <v>918.2522521942645</v>
       </c>
       <c r="Y24" t="n">
-        <v>441.2458075581799</v>
+        <v>758.8502925580946</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.3055948183008</v>
+        <v>809.7460931186083</v>
       </c>
       <c r="C25" t="n">
-        <v>31.21222238001735</v>
+        <v>809.7460931186083</v>
       </c>
       <c r="D25" t="n">
-        <v>31.21222238001735</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E25" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F25" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G25" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H25" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6169,28 +6171,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R25" t="n">
-        <v>1501.138712575332</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1501.138712575332</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T25" t="n">
-        <v>1501.138712575332</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U25" t="n">
-        <v>1218.340565121456</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="V25" t="n">
-        <v>944.4548200609784</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="W25" t="n">
-        <v>665.3851555698527</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="X25" t="n">
-        <v>427.0412934295362</v>
+        <v>997.4457995126527</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.3055948183008</v>
+        <v>997.4457995126527</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>432.9195465531059</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="C26" t="n">
-        <v>342.1207197522994</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D26" t="n">
-        <v>342.1207197522994</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E26" t="n">
-        <v>342.1207197522994</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F26" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H26" t="n">
         <v>31.21222238001735</v>
@@ -6227,25 +6229,25 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K26" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>285.3976938477716</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M26" t="n">
-        <v>285.3976938477716</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N26" t="n">
-        <v>426.3909626105813</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O26" t="n">
-        <v>812.642214563296</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P26" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q26" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R26" t="n">
         <v>1560.611119000868</v>
@@ -6260,16 +6262,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V26" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W26" t="n">
-        <v>827.0132634725169</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X26" t="n">
-        <v>432.9195465531059</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y26" t="n">
-        <v>432.9195465531059</v>
+        <v>1213.49337313825</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>192.9527650369019</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C27" t="n">
-        <v>58.9576937858476</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D27" t="n">
-        <v>31.21222238001735</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E27" t="n">
-        <v>31.21222238001735</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F27" t="n">
-        <v>31.21222238001735</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G27" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H27" t="n">
         <v>31.21222238001735</v>
@@ -6303,19 +6305,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J27" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K27" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L27" t="n">
-        <v>372.2978437800934</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>372.2978437800934</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="N27" t="n">
-        <v>758.5490957328082</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O27" t="n">
         <v>1144.800347685523</v>
@@ -6330,25 +6332,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S27" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T27" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U27" t="n">
-        <v>1095.928434440403</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V27" t="n">
-        <v>882.216907433437</v>
+        <v>1149.54878113212</v>
       </c>
       <c r="W27" t="n">
-        <v>668.9837391697657</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="X27" t="n">
-        <v>492.6577573086585</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="Y27" t="n">
-        <v>333.2557976724885</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>770.328229041754</v>
+        <v>176.5052829192355</v>
       </c>
       <c r="C28" t="n">
-        <v>770.328229041754</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D28" t="n">
-        <v>625.3269296763717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E28" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F28" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G28" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H28" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I28" t="n">
         <v>31.21222238001735</v>
@@ -6400,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R28" t="n">
         <v>1475.338400676267</v>
       </c>
       <c r="S28" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T28" t="n">
-        <v>1049.39789353288</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U28" t="n">
-        <v>1049.39789353288</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V28" t="n">
-        <v>1049.39789353288</v>
+        <v>918.6545081619131</v>
       </c>
       <c r="W28" t="n">
-        <v>770.328229041754</v>
+        <v>639.5848436707874</v>
       </c>
       <c r="X28" t="n">
-        <v>770.328229041754</v>
+        <v>401.2409815304708</v>
       </c>
       <c r="Y28" t="n">
-        <v>770.328229041754</v>
+        <v>176.5052829192355</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1168.269552054478</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C29" t="n">
-        <v>774.1758351350675</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D29" t="n">
-        <v>774.1758351350675</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E29" t="n">
-        <v>774.1758351350675</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="F29" t="n">
-        <v>774.1758351350675</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G29" t="n">
-        <v>380.0821182156565</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H29" t="n">
-        <v>69.17362084337447</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I29" t="n">
         <v>31.21222238001735</v>
@@ -6467,19 +6469,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L29" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M29" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N29" t="n">
-        <v>747.5519694058733</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O29" t="n">
-        <v>1133.803221358588</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P29" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q29" t="n">
         <v>1520.054473311303</v>
@@ -6488,25 +6490,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T29" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U29" t="n">
-        <v>1168.269552054478</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V29" t="n">
-        <v>1168.269552054478</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W29" t="n">
-        <v>1168.269552054478</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X29" t="n">
-        <v>1168.269552054478</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="Y29" t="n">
-        <v>1168.269552054478</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>710.0430642665517</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C30" t="n">
-        <v>576.0479930154975</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D30" t="n">
-        <v>459.1508352348899</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E30" t="n">
-        <v>338.6580192272179</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F30" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G30" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H30" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I30" t="n">
         <v>31.21222238001735</v>
@@ -6543,25 +6545,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K30" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L30" t="n">
-        <v>224.0250799426506</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N30" t="n">
         <v>996.52758384808</v>
       </c>
       <c r="O30" t="n">
-        <v>1382.778835800795</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P30" t="n">
         <v>1382.778835800795</v>
       </c>
       <c r="Q30" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R30" t="n">
         <v>1560.611119000868</v>
@@ -6570,22 +6572,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T30" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U30" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V30" t="n">
-        <v>1346.899591993901</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W30" t="n">
-        <v>1133.66642373023</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X30" t="n">
-        <v>957.340441869123</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y30" t="n">
-        <v>797.938482232953</v>
+        <v>511.5571472368467</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G31" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H31" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I31" t="n">
         <v>31.21222238001735</v>
@@ -6622,10 +6624,10 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M31" t="n">
         <v>749.0082562280199</v>
@@ -6661,10 +6663,10 @@
         <v>485.3088229720902</v>
       </c>
       <c r="X31" t="n">
-        <v>485.3088229720902</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.5731243608549</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="C32" t="n">
         <v>425.3059392994284</v>
       </c>
       <c r="D32" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E32" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F32" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G32" t="n">
         <v>31.21222238001735</v>
@@ -6701,16 +6703,16 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K32" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L32" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M32" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N32" t="n">
-        <v>671.6489458004863</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O32" t="n">
         <v>812.642214563296</v>
@@ -6725,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T32" t="n">
-        <v>1338.404634947726</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U32" t="n">
-        <v>1081.344143207237</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V32" t="n">
-        <v>809.0662401642599</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W32" t="n">
-        <v>425.3059392994284</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="X32" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y32" t="n">
-        <v>425.3059392994284</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>459.8417770616245</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C33" t="n">
-        <v>325.8467058105702</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D33" t="n">
-        <v>208.9495480299626</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E33" t="n">
-        <v>208.9495480299626</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F33" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G33" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H33" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I33" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J33" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>372.2978437800934</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L33" t="n">
-        <v>758.5490957328082</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M33" t="n">
-        <v>1144.800347685523</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N33" t="n">
-        <v>1531.051599638238</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O33" t="n">
-        <v>1531.051599638238</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P33" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q33" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R33" t="n">
         <v>1560.611119000868</v>
@@ -6807,22 +6809,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T33" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U33" t="n">
-        <v>1095.928434440403</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V33" t="n">
-        <v>882.216907433437</v>
+        <v>1238.90958210821</v>
       </c>
       <c r="W33" t="n">
-        <v>668.9837391697657</v>
+        <v>1025.676413844539</v>
       </c>
       <c r="X33" t="n">
-        <v>668.9837391697657</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.1448096972111</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9386174866106</v>
+        <v>1099.025667546345</v>
       </c>
       <c r="C34" t="n">
-        <v>799.8452450483271</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D34" t="n">
-        <v>640.3506003712371</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E34" t="n">
-        <v>479.4397852395565</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F34" t="n">
-        <v>314.8086593501478</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G34" t="n">
-        <v>147.5582682756912</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H34" t="n">
         <v>147.5582682756912</v>
@@ -6856,16 +6858,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L34" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6892,16 +6894,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V34" t="n">
-        <v>1396.982186020972</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="W34" t="n">
-        <v>1396.982186020972</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="X34" t="n">
-        <v>1158.638323880655</v>
+        <v>1286.72537394039</v>
       </c>
       <c r="Y34" t="n">
-        <v>1158.638323880655</v>
+        <v>1286.72537394039</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1524.401870510532</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C35" t="n">
-        <v>1130.308153591121</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D35" t="n">
-        <v>736.2144366717104</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E35" t="n">
         <v>342.1207197522994</v>
@@ -6929,58 +6931,58 @@
         <v>342.1207197522994</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K35" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L35" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="M35" t="n">
-        <v>803.7147262854468</v>
+        <v>40.13971065786643</v>
       </c>
       <c r="N35" t="n">
-        <v>803.7147262854468</v>
+        <v>426.390962610581</v>
       </c>
       <c r="O35" t="n">
-        <v>1189.965978238161</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.893466516011</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311303</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V35" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.773564337348</v>
       </c>
       <c r="W35" t="n">
-        <v>1560.611119000868</v>
+        <v>827.0132634725164</v>
       </c>
       <c r="X35" t="n">
-        <v>1560.611119000868</v>
+        <v>432.9195465531055</v>
       </c>
       <c r="Y35" t="n">
-        <v>1560.611119000868</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C36" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D36" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E36" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272178</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G36" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H36" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977717</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="K36" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="L36" t="n">
-        <v>417.4634743327321</v>
+        <v>417.4634743327319</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4634743327321</v>
+        <v>803.7147262854465</v>
       </c>
       <c r="N36" t="n">
-        <v>417.4634743327321</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O36" t="n">
-        <v>794.9558830015396</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="P36" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="Q36" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S36" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U36" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="V36" t="n">
-        <v>1238.90958210821</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="W36" t="n">
-        <v>1025.676413844539</v>
+        <v>1079.567718295218</v>
       </c>
       <c r="X36" t="n">
-        <v>849.3504319834315</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y36" t="n">
-        <v>829.5975055223786</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="37">
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.546072681154</v>
+        <v>1093.841748115697</v>
       </c>
       <c r="C37" t="n">
-        <v>949.4527002428704</v>
+        <v>922.7483756774136</v>
       </c>
       <c r="D37" t="n">
-        <v>789.9580555657803</v>
+        <v>763.2537310003236</v>
       </c>
       <c r="E37" t="n">
         <v>629.0472404340999</v>
@@ -7093,7 +7095,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K37" t="n">
         <v>199.8470995074659</v>
@@ -7102,7 +7104,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7111,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198357</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000868</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R37" t="n">
-        <v>1532.981477686434</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S37" t="n">
-        <v>1532.981477686434</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T37" t="n">
-        <v>1532.981477686434</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="U37" t="n">
-        <v>1532.981477686434</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="V37" t="n">
-        <v>1532.981477686434</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="W37" t="n">
-        <v>1532.981477686434</v>
+        <v>1281.541454509741</v>
       </c>
       <c r="X37" t="n">
-        <v>1532.981477686434</v>
+        <v>1281.541454509741</v>
       </c>
       <c r="Y37" t="n">
-        <v>1308.245779075198</v>
+        <v>1281.541454509741</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1560.611119000868</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C38" t="n">
-        <v>1166.517402081457</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="D38" t="n">
-        <v>772.4236851620456</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="E38" t="n">
-        <v>736.2144366717104</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="F38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G38" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H38" t="n">
         <v>31.21222238001735</v>
@@ -7178,22 +7180,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="L38" t="n">
-        <v>426.3909626105813</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M38" t="n">
-        <v>812.642214563296</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N38" t="n">
-        <v>812.642214563296</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O38" t="n">
-        <v>1198.893466516011</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P38" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q38" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>402.5972674193512</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C39" t="n">
-        <v>268.6021961682969</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D39" t="n">
-        <v>151.7050383876894</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E39" t="n">
-        <v>31.21222238001735</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F39" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G39" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H39" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I39" t="n">
         <v>31.21222238001735</v>
@@ -7257,19 +7259,19 @@
         <v>224.0250799426506</v>
       </c>
       <c r="L39" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M39" t="n">
-        <v>224.0250799426506</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="N39" t="n">
-        <v>408.7046310488249</v>
+        <v>758.5490957328082</v>
       </c>
       <c r="O39" t="n">
-        <v>794.9558830015396</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="P39" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q39" t="n">
         <v>1531.051599638238</v>
@@ -7278,25 +7280,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T39" t="n">
-        <v>1502.923747684634</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U39" t="n">
-        <v>1305.572936822853</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V39" t="n">
-        <v>1091.861409815886</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="W39" t="n">
-        <v>878.6282415522151</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X39" t="n">
-        <v>702.3022596911078</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y39" t="n">
-        <v>542.9003000549378</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.0788206111761</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C40" t="n">
-        <v>727.0788206111761</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D40" t="n">
-        <v>567.584175934086</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E40" t="n">
-        <v>406.6733608024055</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F40" t="n">
-        <v>242.0422349129968</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G40" t="n">
-        <v>74.79184383854019</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H40" t="n">
-        <v>74.79184383854019</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7354,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S40" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T40" t="n">
-        <v>1288.946632556178</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U40" t="n">
-        <v>1006.148485102302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V40" t="n">
-        <v>1006.148485102302</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W40" t="n">
-        <v>727.0788206111761</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X40" t="n">
-        <v>727.0788206111761</v>
+        <v>1322.267256860551</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.0788206111761</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>772.4236851620456</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="C41" t="n">
-        <v>378.3299682426345</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="D41" t="n">
-        <v>378.3299682426345</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3299682426345</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="F41" t="n">
-        <v>378.3299682426345</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="G41" t="n">
-        <v>378.3299682426345</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="H41" t="n">
-        <v>67.42147087035255</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I41" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J41" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K41" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L41" t="n">
-        <v>426.3909626105813</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M41" t="n">
-        <v>812.642214563296</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N41" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O41" t="n">
-        <v>812.642214563296</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P41" t="n">
-        <v>1198.893466516011</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="Q41" t="n">
         <v>1520.054473311303</v>
@@ -7436,25 +7438,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S41" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U41" t="n">
-        <v>1560.611119000868</v>
+        <v>1168.269552054478</v>
       </c>
       <c r="V41" t="n">
-        <v>1560.611119000868</v>
+        <v>818.4319973909592</v>
       </c>
       <c r="W41" t="n">
-        <v>1560.611119000868</v>
+        <v>434.6716965261277</v>
       </c>
       <c r="X41" t="n">
-        <v>1560.611119000868</v>
+        <v>428.4724824352262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1166.517402081457</v>
+        <v>428.4724824352262</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C42" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D42" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E42" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F42" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G42" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H42" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I42" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>31.21222238001735</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="K42" t="n">
-        <v>31.21222238001735</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="L42" t="n">
-        <v>417.4634743327321</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4634743327321</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N42" t="n">
-        <v>758.5490957328082</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O42" t="n">
-        <v>1144.800347685523</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P42" t="n">
-        <v>1531.051599638238</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q42" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R42" t="n">
         <v>1560.611119000868</v>
@@ -7518,22 +7520,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T42" t="n">
-        <v>1452.621109115176</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1452.621109115176</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V42" t="n">
-        <v>1399.307206663087</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W42" t="n">
-        <v>1186.074038399415</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="X42" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y42" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>246.9649608317736</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="C43" t="n">
-        <v>75.87158839349007</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D43" t="n">
-        <v>75.87158839349007</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E43" t="n">
-        <v>75.87158839349007</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F43" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G43" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H43" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
@@ -7591,28 +7593,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R43" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S43" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T43" t="n">
-        <v>1321.06237997757</v>
+        <v>1412.532260994422</v>
       </c>
       <c r="U43" t="n">
-        <v>1038.264232523694</v>
+        <v>1412.532260994422</v>
       </c>
       <c r="V43" t="n">
-        <v>764.3784874632158</v>
+        <v>1412.532260994422</v>
       </c>
       <c r="W43" t="n">
-        <v>485.3088229720902</v>
+        <v>1412.532260994422</v>
       </c>
       <c r="X43" t="n">
-        <v>246.9649608317736</v>
+        <v>1174.188398854106</v>
       </c>
       <c r="Y43" t="n">
-        <v>246.9649608317736</v>
+        <v>949.4527002428704</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>426.390962610581</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>812.6422145632956</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1198.89346651601</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1520.054473311302</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1081.344143207236</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1081.344143207236</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>697.5838423424048</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>342.1207197522994</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>408.7046310488247</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>794.9558830015393</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1531.051599638237</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1293.279245302184</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.29477178522788</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>749.0082562280196</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1029.84703862227</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1495.083089198356</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1560.611119000867</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1374.219350880777</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1361.88810524815</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1137.152406636915</v>
       </c>
     </row>
   </sheetData>
@@ -9401,19 +9403,19 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>422.5591119693194</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M20" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9422,7 +9424,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>205.8849923335186</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9492,16 +9494,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>51.43314568295542</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L22" t="n">
-        <v>317.1506174091142</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9641,25 +9643,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>276.673976429141</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O23" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P23" t="n">
-        <v>236.0668064756412</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9722,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N24" t="n">
-        <v>443.3461731439669</v>
+        <v>202.9638619164196</v>
       </c>
       <c r="O24" t="n">
         <v>447.9042587502169</v>
       </c>
       <c r="P24" t="n">
-        <v>204.0301035254733</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9875,16 +9877,16 @@
         <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>213.1214276537053</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>235.3297339513765</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
         <v>483.342555376</v>
@@ -9893,10 +9895,10 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L27" t="n">
-        <v>400.6454545179966</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>207.334752261087</v>
       </c>
       <c r="N27" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>444.4124147530206</v>
@@ -10115,13 +10117,13 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>169.5820115701415</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O29" t="n">
         <v>483.342555376</v>
@@ -10130,7 +10132,7 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q29" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10191,28 +10193,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q30" t="n">
-        <v>206.4630870275083</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,13 +10272,13 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>208.363831904762</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952381</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
@@ -10349,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
@@ -10358,10 +10360,10 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O32" t="n">
-        <v>235.6072188205403</v>
+        <v>483.342555376</v>
       </c>
       <c r="P32" t="n">
         <v>483.8021430311011</v>
@@ -10425,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>400.3567134917629</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>446.2673035610659</v>
@@ -10437,19 +10439,19 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N33" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>270.6627364864445</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10589,19 +10591,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L35" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>483.4430042072623</v>
+        <v>102.3078893841657</v>
       </c>
       <c r="N35" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068361</v>
       </c>
       <c r="O35" t="n">
-        <v>483.342555376</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P35" t="n">
-        <v>102.6670282080047</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610658</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886342</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439668</v>
       </c>
       <c r="O36" t="n">
-        <v>439.0569423018259</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>444.4124147530206</v>
+        <v>428.6486660762441</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L38" t="n">
-        <v>237.902841257602</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O38" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>93.64936328088416</v>
+        <v>277.0331152529795</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>207.334752261087</v>
       </c>
       <c r="N39" t="n">
-        <v>239.7383945110978</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>447.9042587502169</v>
@@ -10920,7 +10922,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L41" t="n">
-        <v>104.5030629899652</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>483.4430042072623</v>
+        <v>169.9599452705675</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O41" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,10 +11138,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>72.38002271790189</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
         <v>446.2673035610659</v>
@@ -11148,19 +11150,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>397.7243241008975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>444.4124147530206</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>89.13638967321712</v>
@@ -11306,19 +11308,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513763</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>483.3425553759999</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>483.802143031101</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11385,19 +11387,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>239.7383945110976</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502168</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530205</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K46" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>54.62829389390151</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>56.07489807299633</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -24029,10 +24031,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>36.27612945219198</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H21" t="n">
-        <v>31.34243305653136</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I21" t="n">
         <v>20.54110546596223</v>
@@ -24105,16 +24107,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24178,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>8.893130557884319</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24215,16 +24217,16 @@
         <v>20.04403357805535</v>
       </c>
       <c r="F23" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>130.2598279290318</v>
       </c>
       <c r="T23" t="n">
-        <v>130.8277376317036</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24288,19 +24290,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>54.94950220363005</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
         <v>20.54110546596223</v>
@@ -24336,7 +24338,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24348,7 +24350,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>156.6799949750538</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>138.3095410530194</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.54230878007432</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24445,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>316.1325062470641</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24500,16 +24502,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>53.28073791739968</v>
       </c>
     </row>
     <row r="27">
@@ -24525,19 +24527,19 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>20.54110546596223</v>
@@ -24570,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24585,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>52.15701376719882</v>
       </c>
     </row>
     <row r="28">
@@ -24601,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>25.54230878007468</v>
       </c>
       <c r="D28" t="n">
-        <v>14.34841185859068</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,25 +24682,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>76.30841722629816</v>
       </c>
       <c r="G29" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.90646057737403</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24743,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51.8835385224935</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24771,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,10 +24812,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T30" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24825,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>69.60822628188014</v>
       </c>
     </row>
     <row r="31">
@@ -24850,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>53.69317963939997</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="32">
@@ -24917,10 +24919,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D32" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24929,7 +24931,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>76.78405510433714</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>176.6885780085524</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25002,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25014,7 +25016,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25047,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25059,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>174.5627220424961</v>
+        <v>158.793648309328</v>
       </c>
       <c r="Y33" t="n">
-        <v>89.65739986197924</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.30520108346062</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>109.1542439597762</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.2718118624128</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -25211,16 +25213,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520203</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>307.0364677885927</v>
       </c>
     </row>
     <row r="36">
@@ -25251,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>195.3773027531635</v>
@@ -25293,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>105.4412569031556</v>
       </c>
       <c r="Y36" t="n">
-        <v>138.2525428433659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>26.43728131980228</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06664624006477</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25372,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C38" t="n">
         <v>15.87056502964566</v>
@@ -25397,16 +25399,16 @@
         <v>10.26651085765315</v>
       </c>
       <c r="E38" t="n">
-        <v>374.3496573228404</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>26.66732817563241</v>
+        <v>73.17353952185829</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25479,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>100.6379475717906</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>104.9676817472931</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.03876019277951</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>208.6070786176237</v>
       </c>
     </row>
     <row r="41">
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>49.64108905066573</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>390.4997419027445</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25725,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,19 +25760,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>158.7936483093277</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>105.2411569919985</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>118.7720422771767</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>174.9751733480386</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25880,7 +25882,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25916,19 +25918,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>44.72847248853265</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3773027531635</v>
+        <v>68.70304245346036</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -26007,10 +26009,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26086,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>223.7524903426126</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>493672.2460809032</v>
+        <v>150357.0455461972</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493672.2460809033</v>
+        <v>493672.246080903</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493672.2460809033</v>
+        <v>493672.2460809031</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493672.2460809031</v>
+        <v>493672.2460809032</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150357.0455461972</v>
+        <v>493672.2460809032</v>
       </c>
     </row>
   </sheetData>
@@ -26329,10 +26331,10 @@
         <v>33951.59092978646</v>
       </c>
       <c r="H2" t="n">
-        <v>111322.3517109387</v>
+        <v>33951.59092978646</v>
       </c>
       <c r="I2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="J2" t="n">
         <v>111322.3517109386</v>
@@ -26347,13 +26349,13 @@
         <v>111322.3517109386</v>
       </c>
       <c r="N2" t="n">
+        <v>111322.3517109386</v>
+      </c>
+      <c r="O2" t="n">
         <v>111322.3517109387</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>111322.3517109386</v>
-      </c>
-      <c r="P2" t="n">
-        <v>33951.59092978646</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105266.7313516263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>103749.8173439574</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,31 +26435,31 @@
         <v>14550.68182705134</v>
       </c>
       <c r="H4" t="n">
-        <v>48721.16081124991</v>
+        <v>14550.68182705134</v>
       </c>
       <c r="I4" t="n">
-        <v>48721.16081124989</v>
+        <v>48721.1608112499</v>
       </c>
       <c r="J4" t="n">
         <v>48721.16081124991</v>
       </c>
       <c r="K4" t="n">
+        <v>48721.1608112499</v>
+      </c>
+      <c r="L4" t="n">
+        <v>48721.1608112499</v>
+      </c>
+      <c r="M4" t="n">
+        <v>48721.16081124989</v>
+      </c>
+      <c r="N4" t="n">
         <v>48721.16081124991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>48721.16081124991</v>
-      </c>
-      <c r="M4" t="n">
-        <v>48721.1608112499</v>
-      </c>
-      <c r="N4" t="n">
-        <v>48721.1608112499</v>
       </c>
       <c r="O4" t="n">
         <v>48721.16081124991</v>
       </c>
       <c r="P4" t="n">
-        <v>14550.68182705134</v>
+        <v>48721.1608112499</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>23721.28900881319</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>23721.28900881319</v>
@@ -26500,7 +26502,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881319</v>
+        <v>23721.28900881318</v>
       </c>
       <c r="N5" t="n">
         <v>23721.28900881319</v>
@@ -26509,7 +26511,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>23721.28900881318</v>
       </c>
     </row>
     <row r="6">
@@ -26537,31 +26539,31 @@
         <v>19400.90910273512</v>
       </c>
       <c r="H6" t="n">
-        <v>-66386.82946075071</v>
+        <v>19400.90910273512</v>
       </c>
       <c r="I6" t="n">
-        <v>38879.90189087558</v>
+        <v>-64869.91545308188</v>
       </c>
       <c r="J6" t="n">
-        <v>38879.90189087551</v>
+        <v>38879.90189087555</v>
       </c>
       <c r="K6" t="n">
-        <v>38879.90189087554</v>
+        <v>38879.90189087552</v>
       </c>
       <c r="L6" t="n">
         <v>38879.90189087555</v>
       </c>
       <c r="M6" t="n">
-        <v>38879.90189087552</v>
+        <v>38879.90189087557</v>
       </c>
       <c r="N6" t="n">
-        <v>38879.90189087557</v>
+        <v>38879.90189087554</v>
       </c>
       <c r="O6" t="n">
-        <v>38879.90189087555</v>
+        <v>38879.9018908756</v>
       </c>
       <c r="P6" t="n">
-        <v>19400.90910273512</v>
+        <v>38879.90189087554</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>390.1527797502169</v>
@@ -26820,7 +26822,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N4" t="n">
         <v>390.1527797502169</v>
@@ -26829,7 +26831,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.22479737900053</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>156.1134623456949</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>262.5223235152127</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>292.1859155964578</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>283.67553777197</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>262.1824346732062</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>207.7529699491034</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.18992909344529</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="N23" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P23" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N24" t="n">
-        <v>390.1527797502169</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="O24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P24" t="n">
-        <v>149.7704685226696</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K25" t="n">
         <v>156.1134623456949</v>
@@ -36595,16 +36597,16 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>390.1527797502169</v>
@@ -36613,10 +36615,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L27" t="n">
-        <v>344.5309307071475</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="N27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>390.1527797502169</v>
@@ -36835,13 +36837,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>76.66972081352215</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O29" t="n">
         <v>390.1527797502169</v>
@@ -36850,7 +36852,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36911,28 +36913,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N30" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O30" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
       <c r="Q30" t="n">
-        <v>149.7704685226696</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,13 +36992,13 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>156.1134623456949</v>
+        <v>156.1134623456952</v>
       </c>
       <c r="L31" t="n">
         <v>262.5223235152127</v>
       </c>
       <c r="M31" t="n">
-        <v>292.1859155964581</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N31" t="n">
         <v>283.67553777197</v>
@@ -37069,19 +37071,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O32" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>142.4174431947572</v>
       </c>
       <c r="P32" t="n">
         <v>390.1527797502169</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>390.1527797502169</v>
@@ -37157,19 +37159,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N33" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K34" t="n">
         <v>156.1134623456949</v>
@@ -37309,19 +37311,19 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>390.1527797502169</v>
+        <v>9.01766492712029</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502169</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P35" t="n">
-        <v>9.017664927120512</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="O36" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734404</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O38" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>183.3837519720954</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>149.7704685226696</v>
       </c>
       <c r="N39" t="n">
-        <v>186.5450011173478</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>390.1527797502169</v>
@@ -37640,7 +37642,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>29.85810036629282</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L41" t="n">
-        <v>9.017664927120396</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
+        <v>76.66972081352203</v>
+      </c>
+      <c r="N41" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>21.01078391790188</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
         <v>390.1527797502169</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>344.5309307071475</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37958,7 @@
         <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.18992909344536</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38026,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>142.417443194757</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>186.5450011173476</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>390.1527797502168</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75751.29148575064</v>
+        <v>65816.70737575652</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18158024.90737735</v>
+        <v>18158024.90737736</v>
       </c>
     </row>
     <row r="8">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>135.6268595587068</v>
       </c>
       <c r="C23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.668436524808382</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>115.7281862028015</v>
@@ -2414,7 +2414,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U24" t="n">
         <v>195.3773027531635</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>202.8520803943146</v>
       </c>
       <c r="W24" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>17.88272706744235</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
         <v>157.8079400398083</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>19.59015717729969</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>92.58545235732008</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>390.1527797502169</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>135.6268595587067</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.6465684039911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>105.6509262726095</v>
       </c>
       <c r="U27" t="n">
         <v>195.3773027531635</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>105.6509262726095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>143.840129933826</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>340.5116906995511</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>390.1527797502169</v>
+        <v>207.7501450163307</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C30" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D30" t="n">
-        <v>115.7281862028015</v>
+        <v>64.33838564396525</v>
       </c>
       <c r="E30" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
-        <v>88.19971375792814</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="31">
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>55.69551283691957</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>219.9483858441846</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>177.7058317187479</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>107.8702810193205</v>
+        <v>70.53218915774207</v>
       </c>
       <c r="G33" t="n">
         <v>105.9202115588047</v>
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V33" t="n">
         <v>211.5744117368965</v>
@@ -3173,7 +3173,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
-        <v>15.76907373316809</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y33" t="n">
         <v>157.8079400398083</v>
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>148.07723763044</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3204,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>21.69946940036139</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>263.7619864775174</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.89083853279811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I36" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>126.6742602997035</v>
       </c>
       <c r="X36" t="n">
-        <v>69.12146513934047</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
         <v>157.8079400398083</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>132.8644256605614</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>259.3250421185132</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>219.9844192126098</v>
+      </c>
+      <c r="U38" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="C38" t="n">
+      <c r="Y38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="D38" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>343.646568403991</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,22 +3587,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>115.7281862028015</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="E39" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>157.7484451748619</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3678,10 +3678,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.88126300749924</v>
+        <v>7.034559392419439</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>115.9008527225317</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.137221949992519</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U42" t="n">
-        <v>195.3773027531635</v>
+        <v>126.6742602997035</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>105.8596795890361</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
         <v>157.8079400398083</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>109.0257229735234</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>62.17807828502634</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>83.7221332419082</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4036,13 +4036,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>351.9084913642043</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>115.7281862028015</v>
@@ -4070,10 +4070,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U45" t="n">
-        <v>126.6742602997031</v>
+        <v>12.61408491376182</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>54.72290806889407</v>
       </c>
       <c r="X46" t="n">
-        <v>12.20793317630082</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1299.845135821177</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C23" t="n">
-        <v>905.7514189017662</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D23" t="n">
-        <v>905.7514189017662</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E23" t="n">
-        <v>511.6577019823552</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F23" t="n">
-        <v>511.6577019823552</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H23" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I23" t="n">
         <v>31.21222238001735</v>
@@ -5992,22 +5992,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L23" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M23" t="n">
-        <v>466.9476083001462</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N23" t="n">
-        <v>853.1988602528609</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O23" t="n">
-        <v>1239.450112205576</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="P23" t="n">
-        <v>1239.450112205576</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q23" t="n">
         <v>1560.611119000868</v>
@@ -6016,25 +6016,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S23" t="n">
-        <v>1556.905627561667</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T23" t="n">
-        <v>1556.905627561667</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U23" t="n">
-        <v>1299.845135821177</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V23" t="n">
-        <v>1299.845135821177</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W23" t="n">
-        <v>1299.845135821177</v>
+        <v>562.302767136506</v>
       </c>
       <c r="X23" t="n">
-        <v>1299.845135821177</v>
+        <v>562.302767136506</v>
       </c>
       <c r="Y23" t="n">
-        <v>1299.845135821177</v>
+        <v>168.209050217095</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>618.5472599225079</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="C24" t="n">
-        <v>484.5521886714537</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D24" t="n">
-        <v>367.6550308908461</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E24" t="n">
-        <v>247.1622148831741</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F24" t="n">
-        <v>138.2023350656787</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G24" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H24" t="n">
         <v>31.21222238001735</v>
@@ -6071,49 +6071,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K24" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L24" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M24" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N24" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O24" t="n">
-        <v>1531.051599638238</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q24" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R24" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S24" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T24" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U24" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V24" t="n">
-        <v>1149.54878113212</v>
+        <v>891.0273431330147</v>
       </c>
       <c r="W24" t="n">
-        <v>936.3156128684487</v>
+        <v>891.0273431330147</v>
       </c>
       <c r="X24" t="n">
-        <v>918.2522521942645</v>
+        <v>714.7013612719076</v>
       </c>
       <c r="Y24" t="n">
-        <v>758.8502925580946</v>
+        <v>555.2994016357376</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.7460931186083</v>
+        <v>124.7328813268053</v>
       </c>
       <c r="C25" t="n">
-        <v>809.7460931186083</v>
+        <v>124.7328813268053</v>
       </c>
       <c r="D25" t="n">
-        <v>789.9580555657803</v>
+        <v>124.7328813268053</v>
       </c>
       <c r="E25" t="n">
-        <v>629.0472404340999</v>
+        <v>124.7328813268053</v>
       </c>
       <c r="F25" t="n">
-        <v>464.4161145446911</v>
+        <v>124.7328813268053</v>
       </c>
       <c r="G25" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H25" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I25" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J25" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K25" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L25" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M25" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N25" t="n">
         <v>1029.84703862227</v>
@@ -6174,25 +6174,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S25" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T25" t="n">
-        <v>1235.789661652969</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U25" t="n">
-        <v>1235.789661652969</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V25" t="n">
-        <v>1235.789661652969</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="W25" t="n">
-        <v>1235.789661652969</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="X25" t="n">
-        <v>997.4457995126527</v>
+        <v>537.168286332085</v>
       </c>
       <c r="Y25" t="n">
-        <v>997.4457995126527</v>
+        <v>312.4325877208497</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C26" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D26" t="n">
-        <v>819.3996562188394</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E26" t="n">
         <v>425.3059392994284</v>
@@ -6232,16 +6232,16 @@
         <v>671.6489458004863</v>
       </c>
       <c r="L26" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M26" t="n">
-        <v>788.1086150954382</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="N26" t="n">
-        <v>788.1086150954382</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O26" t="n">
-        <v>1174.359867048153</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P26" t="n">
         <v>1560.611119000868</v>
@@ -6253,25 +6253,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S26" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T26" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U26" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V26" t="n">
-        <v>1560.611119000868</v>
+        <v>809.0662401642599</v>
       </c>
       <c r="W26" t="n">
-        <v>1560.611119000868</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="X26" t="n">
-        <v>1560.611119000868</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y26" t="n">
-        <v>1213.49337313825</v>
+        <v>425.3059392994284</v>
       </c>
     </row>
     <row r="27">
@@ -6314,19 +6314,19 @@
         <v>996.52758384808</v>
       </c>
       <c r="M27" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N27" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O27" t="n">
-        <v>1144.800347685523</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P27" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q27" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R27" t="n">
         <v>1560.611119000868</v>
@@ -6335,19 +6335,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.611119000868</v>
+        <v>1453.893011654797</v>
       </c>
       <c r="U27" t="n">
-        <v>1363.260308139086</v>
+        <v>1256.542200793016</v>
       </c>
       <c r="V27" t="n">
-        <v>1149.54878113212</v>
+        <v>1042.83067378605</v>
       </c>
       <c r="W27" t="n">
-        <v>936.3156128684487</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="X27" t="n">
-        <v>936.3156128684487</v>
+        <v>829.5975055223786</v>
       </c>
       <c r="Y27" t="n">
         <v>829.5975055223786</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>176.5052829192355</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C28" t="n">
         <v>31.21222238001735</v>
@@ -6402,34 +6402,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P28" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q28" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R28" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S28" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T28" t="n">
-        <v>1475.338400676267</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U28" t="n">
-        <v>1192.540253222391</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V28" t="n">
-        <v>918.6545081619131</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W28" t="n">
-        <v>639.5848436707874</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X28" t="n">
-        <v>401.2409815304708</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.5052829192355</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D29" t="n">
-        <v>772.4236851620456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E29" t="n">
-        <v>772.4236851620456</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F29" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G29" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H29" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I29" t="n">
         <v>31.21222238001735</v>
@@ -6466,49 +6466,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K29" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L29" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="M29" t="n">
-        <v>285.3976938477716</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="N29" t="n">
-        <v>426.3909626105813</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O29" t="n">
-        <v>812.642214563296</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P29" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q29" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R29" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S29" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T29" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="W29" t="n">
-        <v>1560.611119000868</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="X29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y29" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>511.5571472368467</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C30" t="n">
-        <v>377.5620759857924</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D30" t="n">
-        <v>260.6649182051848</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="E30" t="n">
-        <v>140.1721021975128</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="F30" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="G30" t="n">
-        <v>31.21222238001735</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H30" t="n">
         <v>31.21222238001735</v>
@@ -6551,16 +6551,16 @@
         <v>996.52758384808</v>
       </c>
       <c r="M30" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N30" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O30" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P30" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q30" t="n">
         <v>1560.611119000868</v>
@@ -6587,7 +6587,7 @@
         <v>600.6477671943499</v>
       </c>
       <c r="Y30" t="n">
-        <v>511.5571472368467</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.21222238001735</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="C31" t="n">
-        <v>31.21222238001735</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D31" t="n">
         <v>31.21222238001735</v>
@@ -6624,13 +6624,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K31" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L31" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M31" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N31" t="n">
         <v>1029.84703862227</v>
@@ -6666,7 +6666,7 @@
         <v>246.9649608317736</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.21222238001735</v>
+        <v>246.9649608317736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F32" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G32" t="n">
         <v>31.21222238001735</v>
@@ -6700,16 +6700,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J32" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K32" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L32" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M32" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="N32" t="n">
         <v>426.3909626105813</v>
@@ -6727,25 +6727,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S32" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T32" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U32" t="n">
-        <v>1425.330043794968</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="V32" t="n">
-        <v>1425.330043794968</v>
+        <v>988.5670802842071</v>
       </c>
       <c r="W32" t="n">
-        <v>1041.569742930137</v>
+        <v>604.8067794193757</v>
       </c>
       <c r="X32" t="n">
-        <v>819.3996562188394</v>
+        <v>210.7130624999647</v>
       </c>
       <c r="Y32" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C33" t="n">
-        <v>576.0479930154975</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D33" t="n">
-        <v>459.1508352348899</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="E33" t="n">
-        <v>338.6580192272179</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="F33" t="n">
         <v>229.6981394097224</v>
@@ -6782,22 +6782,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K33" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L33" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M33" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N33" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O33" t="n">
-        <v>996.52758384808</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P33" t="n">
-        <v>1210.766654316884</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q33" t="n">
         <v>1560.611119000868</v>
@@ -6806,25 +6806,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S33" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T33" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U33" t="n">
-        <v>1452.621109115176</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V33" t="n">
-        <v>1238.90958210821</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W33" t="n">
-        <v>1025.676413844539</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X33" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y33" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="34">
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1099.025667546345</v>
+        <v>876.5112275508977</v>
       </c>
       <c r="C34" t="n">
-        <v>949.4527002428704</v>
+        <v>705.4178551126142</v>
       </c>
       <c r="D34" t="n">
-        <v>789.9580555657803</v>
+        <v>545.9232104355242</v>
       </c>
       <c r="E34" t="n">
-        <v>629.0472404340999</v>
+        <v>385.0123953038437</v>
       </c>
       <c r="F34" t="n">
-        <v>464.4161145446911</v>
+        <v>220.3812694144349</v>
       </c>
       <c r="G34" t="n">
-        <v>297.1657234702345</v>
+        <v>53.13087833997835</v>
       </c>
       <c r="H34" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I34" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J34" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K34" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L34" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M34" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N34" t="n">
         <v>1029.84703862227</v>
@@ -6882,28 +6882,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R34" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S34" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T34" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U34" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="V34" t="n">
-        <v>1286.72537394039</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="W34" t="n">
-        <v>1286.72537394039</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="X34" t="n">
-        <v>1286.72537394039</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="Y34" t="n">
-        <v>1286.72537394039</v>
+        <v>1064.210933944942</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>342.1207197522994</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="C35" t="n">
-        <v>342.1207197522994</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="D35" t="n">
-        <v>342.1207197522994</v>
+        <v>297.6384713472066</v>
       </c>
       <c r="E35" t="n">
-        <v>342.1207197522994</v>
+        <v>297.6384713472066</v>
       </c>
       <c r="F35" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G35" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I35" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J35" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K35" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L35" t="n">
-        <v>31.21222238001734</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M35" t="n">
-        <v>40.13971065786643</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N35" t="n">
-        <v>426.390962610581</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O35" t="n">
-        <v>812.6422145632956</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P35" t="n">
-        <v>1198.89346651601</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q35" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R35" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S35" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T35" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U35" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V35" t="n">
-        <v>1210.773564337348</v>
+        <v>1075.492489131449</v>
       </c>
       <c r="W35" t="n">
-        <v>827.0132634725164</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="X35" t="n">
-        <v>432.9195465531055</v>
+        <v>691.7321882666176</v>
       </c>
       <c r="Y35" t="n">
-        <v>342.1207197522994</v>
+        <v>691.7321882666176</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C36" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D36" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E36" t="n">
-        <v>338.6580192272178</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F36" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G36" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H36" t="n">
-        <v>51.96081375977717</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I36" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J36" t="n">
-        <v>31.21222238001734</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K36" t="n">
-        <v>31.21222238001734</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L36" t="n">
-        <v>417.4634743327319</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M36" t="n">
-        <v>803.7147262854465</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N36" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O36" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R36" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S36" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T36" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U36" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V36" t="n">
-        <v>1079.567718295218</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="W36" t="n">
-        <v>1079.567718295218</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X36" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y36" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.841748115697</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C37" t="n">
-        <v>922.7483756774136</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D37" t="n">
-        <v>763.2537310003236</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E37" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F37" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G37" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H37" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I37" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J37" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K37" t="n">
         <v>199.8470995074659</v>
@@ -7104,7 +7104,7 @@
         <v>459.7441997875264</v>
       </c>
       <c r="M37" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N37" t="n">
         <v>1029.84703862227</v>
@@ -7113,34 +7113,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P37" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S37" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T37" t="n">
-        <v>1560.611119000867</v>
+        <v>1321.06237997757</v>
       </c>
       <c r="U37" t="n">
-        <v>1560.611119000867</v>
+        <v>1038.264232523694</v>
       </c>
       <c r="V37" t="n">
-        <v>1560.611119000867</v>
+        <v>764.3784874632158</v>
       </c>
       <c r="W37" t="n">
-        <v>1281.541454509741</v>
+        <v>485.3088229720902</v>
       </c>
       <c r="X37" t="n">
-        <v>1281.541454509741</v>
+        <v>246.9649608317736</v>
       </c>
       <c r="Y37" t="n">
-        <v>1281.541454509741</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.517402081457</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="C38" t="n">
-        <v>772.4236851620456</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="D38" t="n">
-        <v>378.3299682426345</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3299682426345</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="F38" t="n">
-        <v>31.21222238001735</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="G38" t="n">
-        <v>31.21222238001735</v>
+        <v>293.1567093684146</v>
       </c>
       <c r="H38" t="n">
         <v>31.21222238001735</v>
@@ -7183,19 +7183,19 @@
         <v>285.3976938477716</v>
       </c>
       <c r="M38" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N38" t="n">
-        <v>1057.900197753201</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O38" t="n">
-        <v>1057.900197753201</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P38" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q38" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R38" t="n">
         <v>1560.611119000868</v>
@@ -7204,22 +7204,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T38" t="n">
-        <v>1560.611119000868</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U38" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V38" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="W38" t="n">
-        <v>1560.611119000868</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="X38" t="n">
-        <v>1560.611119000868</v>
+        <v>687.2504262878256</v>
       </c>
       <c r="Y38" t="n">
-        <v>1560.611119000868</v>
+        <v>293.1567093684146</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C39" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D39" t="n">
-        <v>459.1508352348899</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E39" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F39" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G39" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H39" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I39" t="n">
         <v>31.21222238001735</v>
@@ -7256,49 +7256,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K39" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L39" t="n">
-        <v>610.2763318953653</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M39" t="n">
-        <v>758.5490957328082</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="N39" t="n">
-        <v>758.5490957328082</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O39" t="n">
-        <v>1144.800347685523</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P39" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q39" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R39" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S39" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T39" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U39" t="n">
-        <v>1293.279245302185</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V39" t="n">
-        <v>1293.279245302185</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W39" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X39" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y39" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.546072681154</v>
+        <v>854.5925715909368</v>
       </c>
       <c r="C40" t="n">
-        <v>949.4527002428704</v>
+        <v>683.4991991526533</v>
       </c>
       <c r="D40" t="n">
-        <v>789.9580555657803</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E40" t="n">
-        <v>629.0472404340999</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F40" t="n">
-        <v>464.4161145446911</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G40" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H40" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I40" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J40" t="n">
         <v>45.29477178522787</v>
       </c>
       <c r="K40" t="n">
-        <v>199.8470995074658</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L40" t="n">
         <v>459.7441997875264</v>
@@ -7356,28 +7356,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R40" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S40" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T40" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U40" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="X40" t="n">
-        <v>1322.267256860551</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1308.245779075198</v>
+        <v>1042.292277984981</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="C41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="E41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="F41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="G41" t="n">
-        <v>428.4724824352262</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H41" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I41" t="n">
         <v>31.21222238001735</v>
@@ -7420,19 +7420,19 @@
         <v>1057.900197753201</v>
       </c>
       <c r="M41" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N41" t="n">
-        <v>1520.054473311303</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O41" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P41" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q41" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R41" t="n">
         <v>1560.611119000868</v>
@@ -7441,22 +7441,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T41" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U41" t="n">
-        <v>1168.269552054478</v>
+        <v>1086.05199133523</v>
       </c>
       <c r="V41" t="n">
-        <v>818.4319973909592</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="W41" t="n">
-        <v>434.6716965261277</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="X41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="Y41" t="n">
-        <v>428.4724824352262</v>
+        <v>736.2144366717104</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J42" t="n">
-        <v>52.01289845874021</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K42" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L42" t="n">
-        <v>824.5154023641696</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M42" t="n">
-        <v>824.5154023641696</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N42" t="n">
-        <v>824.5154023641696</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="O42" t="n">
-        <v>824.5154023641696</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P42" t="n">
-        <v>1210.766654316884</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q42" t="n">
         <v>1560.611119000868</v>
@@ -7523,13 +7523,13 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U42" t="n">
-        <v>1095.928434440403</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="V42" t="n">
-        <v>1095.928434440403</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="W42" t="n">
-        <v>988.9994651585486</v>
+        <v>1165.325447019656</v>
       </c>
       <c r="X42" t="n">
         <v>988.9994651585486</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>949.4527002428704</v>
+        <v>202.3055948183008</v>
       </c>
       <c r="C43" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D43" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E43" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G43" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H43" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I43" t="n">
         <v>31.21222238001735</v>
@@ -7596,25 +7596,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S43" t="n">
-        <v>1475.338400676267</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T43" t="n">
-        <v>1412.532260994422</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U43" t="n">
-        <v>1412.532260994422</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.532260994422</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.532260994422</v>
+        <v>775.5121484724016</v>
       </c>
       <c r="X43" t="n">
-        <v>1174.188398854106</v>
+        <v>537.168286332085</v>
       </c>
       <c r="Y43" t="n">
-        <v>949.4527002428704</v>
+        <v>312.4325877208497</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>342.1207197522994</v>
+        <v>596.225513337818</v>
       </c>
       <c r="C44" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="D44" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="E44" t="n">
-        <v>342.1207197522994</v>
+        <v>511.6577019823552</v>
       </c>
       <c r="F44" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="G44" t="n">
-        <v>342.1207197522994</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001734</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J44" t="n">
         <v>285.3976938477716</v>
       </c>
       <c r="K44" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3976938477716</v>
+        <v>812.642214563296</v>
       </c>
       <c r="M44" t="n">
-        <v>285.3976938477716</v>
+        <v>812.642214563296</v>
       </c>
       <c r="N44" t="n">
-        <v>426.390962610581</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O44" t="n">
-        <v>812.6422145632956</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.89346651601</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311302</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000867</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T44" t="n">
-        <v>1338.404634947726</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U44" t="n">
-        <v>1081.344143207236</v>
+        <v>946.0630680013373</v>
       </c>
       <c r="V44" t="n">
-        <v>1081.344143207236</v>
+        <v>596.225513337818</v>
       </c>
       <c r="W44" t="n">
-        <v>697.5838423424048</v>
+        <v>596.225513337818</v>
       </c>
       <c r="X44" t="n">
-        <v>342.1207197522994</v>
+        <v>596.225513337818</v>
       </c>
       <c r="Y44" t="n">
-        <v>342.1207197522994</v>
+        <v>596.225513337818</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>689.2944728867919</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="C45" t="n">
-        <v>555.2994016357376</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D45" t="n">
-        <v>438.40224385513</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E45" t="n">
-        <v>317.909427847458</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F45" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G45" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001734</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="J45" t="n">
         <v>224.0250799426506</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="L45" t="n">
-        <v>224.0250799426506</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M45" t="n">
-        <v>224.0250799426506</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N45" t="n">
-        <v>408.7046310488247</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O45" t="n">
-        <v>794.9558830015393</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P45" t="n">
-        <v>1181.207134954254</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q45" t="n">
-        <v>1531.051599638237</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S45" t="n">
         <v>1452.621109115176</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302184</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U45" t="n">
-        <v>1165.325447019656</v>
+        <v>1280.537745389294</v>
       </c>
       <c r="V45" t="n">
-        <v>1165.325447019656</v>
+        <v>1066.826218382328</v>
       </c>
       <c r="W45" t="n">
-        <v>1165.325447019656</v>
+        <v>853.5930501186563</v>
       </c>
       <c r="X45" t="n">
-        <v>988.9994651585486</v>
+        <v>677.267068257549</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.5975055223786</v>
+        <v>517.865108621379</v>
       </c>
     </row>
     <row r="46">
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.4527002428704</v>
+        <v>522.7110546270713</v>
       </c>
       <c r="C46" t="n">
-        <v>949.4527002428704</v>
+        <v>351.6176821887879</v>
       </c>
       <c r="D46" t="n">
-        <v>789.9580555657803</v>
+        <v>192.1230375116979</v>
       </c>
       <c r="E46" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G46" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H46" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I46" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522788</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280196</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N46" t="n">
         <v>1029.84703862227</v>
@@ -7824,34 +7824,34 @@
         <v>1289.407648948744</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198356</v>
+        <v>1495.083089198357</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000867</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S46" t="n">
-        <v>1374.219350880777</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T46" t="n">
-        <v>1374.219350880777</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U46" t="n">
-        <v>1374.219350880777</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V46" t="n">
-        <v>1374.219350880777</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W46" t="n">
-        <v>1374.219350880777</v>
+        <v>522.7110546270713</v>
       </c>
       <c r="X46" t="n">
-        <v>1361.88810524815</v>
+        <v>522.7110546270713</v>
       </c>
       <c r="Y46" t="n">
-        <v>1137.152406636915</v>
+        <v>522.7110546270713</v>
       </c>
     </row>
   </sheetData>
@@ -9640,13 +9640,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L23" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M23" t="n">
-        <v>276.673976429141</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
         <v>483.0650705068362</v>
@@ -9655,10 +9655,10 @@
         <v>483.342555376</v>
       </c>
       <c r="P23" t="n">
-        <v>93.64936328088416</v>
+        <v>211.2853928717445</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>87.31214281472352</v>
@@ -9719,28 +9719,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L24" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M24" t="n">
-        <v>447.7170634886343</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N24" t="n">
-        <v>202.9638619164196</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
         <v>208.3638319047618</v>
@@ -9880,19 +9880,19 @@
         <v>479.289169423434</v>
       </c>
       <c r="L26" t="n">
-        <v>213.1214276537053</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O26" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9962,7 +9962,7 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M27" t="n">
-        <v>207.334752261087</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L29" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>210.9262540479059</v>
       </c>
       <c r="N29" t="n">
-        <v>235.3297339513765</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O29" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P29" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N30" t="n">
         <v>53.19339339374999</v>
@@ -10211,7 +10211,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.3211873938012</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10272,7 +10272,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
@@ -10360,7 +10360,7 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>235.3297339513765</v>
+        <v>101.9299556837397</v>
       </c>
       <c r="O32" t="n">
         <v>483.342555376</v>
@@ -10430,13 +10430,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L33" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M33" t="n">
-        <v>447.7170634886343</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
@@ -10445,10 +10445,10 @@
         <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>270.6627364864445</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>89.13638967321712</v>
@@ -10594,16 +10594,16 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>102.3078893841657</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N35" t="n">
-        <v>483.0650705068361</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>483.3425553759999</v>
+        <v>235.6072188205403</v>
       </c>
       <c r="P35" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q35" t="n">
         <v>414.4388617681339</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L36" t="n">
-        <v>446.2673035610658</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M36" t="n">
-        <v>447.7170634886342</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N36" t="n">
-        <v>443.3461731439668</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>428.6486660762441</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10831,22 +10831,22 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>483.0650705068362</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P38" t="n">
-        <v>277.0331152529795</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L39" t="n">
         <v>446.2673035610659</v>
       </c>
       <c r="M39" t="n">
-        <v>207.334752261087</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>232.8219622827125</v>
       </c>
       <c r="O39" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M41" t="n">
-        <v>169.9599452705675</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>483.0650705068362</v>
+        <v>210.5483203474797</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P41" t="n">
         <v>93.64936328088416</v>
@@ -11083,7 +11083,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>72.38002271790189</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L42" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11299,22 +11299,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>237.902841257602</v>
       </c>
       <c r="M44" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N44" t="n">
-        <v>235.3297339513763</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>483.3425553759999</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>483.802143031101</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11378,28 +11378,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>235.4543516735779</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N45" t="n">
-        <v>239.7383945110976</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502168</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530205</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K46" t="n">
         <v>208.3638319047618</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>270.4921083091377</v>
       </c>
       <c r="C23" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.2598279290318</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>20.54110546596223</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>8.722331342581924</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X24" t="n">
-        <v>156.6799949750538</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>138.3095410530194</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>72.99243480639193</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,13 +24445,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>26.66732817563241</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>210.7123195581774</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.28073791739968</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24575,7 +24575,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T27" t="n">
-        <v>157.7484451748619</v>
+        <v>52.09751890225242</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
-        <v>52.15701376719882</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="28">
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>25.54230878007468</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>76.30841722629816</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>6.484184102520089</v>
+        <v>188.8868188364063</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>51.38980055883623</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H30" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>20.54110546596223</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>69.60822628188014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24840,10 +24840,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>113.6869258769811</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884291</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -24931,7 +24931,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>176.6885780085524</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>219.2214746026429</v>
       </c>
     </row>
     <row r="33">
@@ -24998,16 +24998,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>37.33809186157839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25046,13 +25046,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>158.793648309328</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>21.30520108346062</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>126.4119112422365</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25134,7 +25134,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -25143,7 +25143,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>153.0581214483319</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>6.484184102520203</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>307.0364677885927</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25292,13 +25292,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W36" t="n">
-        <v>211.1008365810345</v>
+        <v>84.42657628133097</v>
       </c>
       <c r="X36" t="n">
-        <v>105.4412569031556</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>26.43728131980228</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884291</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>73.17353952185829</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>48.47437028004595</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -25444,10 +25444,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -25456,10 +25456,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="39">
@@ -25475,22 +25475,22 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -25614,10 +25614,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.6070786176237</v>
+        <v>215.4537822327035</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>138.5890341005533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>390.4997419027445</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>68.70304245345991</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W42" t="n">
-        <v>105.2411569919985</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X42" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>76.79698635658058</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>174.9751733480386</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25867,7 +25867,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>322.3012115379544</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -25876,16 +25876,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,13 +25924,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>44.72847248853265</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -26000,13 +26000,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>68.70304245346036</v>
+        <v>182.7632178394016</v>
       </c>
       <c r="V45" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>221.5560597773203</v>
       </c>
       <c r="X46" t="n">
-        <v>223.7524903426126</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>493672.2460809031</v>
+        <v>493672.2460809032</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>493672.246080903</v>
+        <v>493672.2460809032</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>493672.2460809031</v>
+        <v>493672.2460809033</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>493672.2460809032</v>
+        <v>493672.2460809033</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>493672.2460809032</v>
+        <v>493672.2460809031</v>
       </c>
     </row>
     <row r="16">
@@ -26328,7 +26328,7 @@
         <v>33951.59092978646</v>
       </c>
       <c r="G2" t="n">
-        <v>33951.59092978646</v>
+        <v>33951.59092978647</v>
       </c>
       <c r="H2" t="n">
         <v>33951.59092978646</v>
@@ -26352,7 +26352,7 @@
         <v>111322.3517109386</v>
       </c>
       <c r="O2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="P2" t="n">
         <v>111322.3517109386</v>
@@ -26438,19 +26438,19 @@
         <v>14550.68182705134</v>
       </c>
       <c r="I4" t="n">
-        <v>48721.1608112499</v>
+        <v>48721.16081124991</v>
       </c>
       <c r="J4" t="n">
         <v>48721.16081124991</v>
       </c>
       <c r="K4" t="n">
-        <v>48721.1608112499</v>
+        <v>48721.16081124991</v>
       </c>
       <c r="L4" t="n">
-        <v>48721.1608112499</v>
+        <v>48721.16081124991</v>
       </c>
       <c r="M4" t="n">
-        <v>48721.16081124989</v>
+        <v>48721.16081124991</v>
       </c>
       <c r="N4" t="n">
         <v>48721.16081124991</v>
@@ -26459,7 +26459,7 @@
         <v>48721.16081124991</v>
       </c>
       <c r="P4" t="n">
-        <v>48721.1608112499</v>
+        <v>48721.16081124991</v>
       </c>
     </row>
     <row r="5">
@@ -26502,7 +26502,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="M5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
       <c r="N5" t="n">
         <v>23721.28900881319</v>
@@ -26511,7 +26511,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881318</v>
+        <v>23721.28900881319</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380525</v>
       </c>
       <c r="C6" t="n">
-        <v>-14226.69089726487</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="D6" t="n">
-        <v>-14226.69089726488</v>
+        <v>-15613.00346380526</v>
       </c>
       <c r="E6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="F6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="G6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="H6" t="n">
-        <v>19400.90910273512</v>
+        <v>18014.59653619475</v>
       </c>
       <c r="I6" t="n">
-        <v>-64869.91545308188</v>
+        <v>-65703.5797283283</v>
       </c>
       <c r="J6" t="n">
-        <v>38879.90189087555</v>
+        <v>38046.23761562908</v>
       </c>
       <c r="K6" t="n">
-        <v>38879.90189087552</v>
+        <v>38046.23761562911</v>
       </c>
       <c r="L6" t="n">
-        <v>38879.90189087555</v>
+        <v>38046.2376156291</v>
       </c>
       <c r="M6" t="n">
-        <v>38879.90189087557</v>
+        <v>38046.23761562908</v>
       </c>
       <c r="N6" t="n">
-        <v>38879.90189087554</v>
+        <v>38046.2376156291</v>
       </c>
       <c r="O6" t="n">
-        <v>38879.9018908756</v>
+        <v>38046.23761562908</v>
       </c>
       <c r="P6" t="n">
-        <v>38879.90189087554</v>
+        <v>38046.23761562906</v>
       </c>
     </row>
   </sheetData>
@@ -26822,7 +26822,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N4" t="n">
         <v>390.1527797502169</v>
@@ -26831,7 +26831,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
   </sheetData>
@@ -36360,13 +36360,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>183.3837519720955</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>390.1527797502169</v>
@@ -36375,10 +36375,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L24" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M24" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N24" t="n">
-        <v>149.7704685226696</v>
-      </c>
-      <c r="O24" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K25" t="n">
         <v>156.1134623456949</v>
@@ -36600,19 +36600,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L26" t="n">
-        <v>117.6360295908604</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="O26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M27" t="n">
-        <v>149.7704685226696</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>117.6360295908604</v>
       </c>
       <c r="N29" t="n">
-        <v>142.4174431947572</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O29" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P29" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
         <v>262.5223235152127</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>142.4174431947572</v>
+        <v>9.017664927120396</v>
       </c>
       <c r="O32" t="n">
         <v>390.1527797502169</v>
@@ -37150,25 +37150,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L33" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M33" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>216.4031014836408</v>
-      </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K34" t="n">
         <v>156.1134623456949</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,16 +37314,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>9.01766492712029</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N35" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>390.1527797502168</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="P35" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q35" t="n">
         <v>324.4050573689818</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L36" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M36" t="n">
-        <v>390.1527797502168</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="N36" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>374.3890310734404</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O38" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>183.3837519720954</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L39" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M39" t="n">
-        <v>149.7704685226696</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="O39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,14 +37788,14 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M41" t="n">
-        <v>76.66972081352203</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
+        <v>117.6360295908603</v>
+      </c>
+      <c r="O41" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
@@ -37803,7 +37803,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>21.01078391790188</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>142.417443194757</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502168</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38098,28 +38098,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N45" t="n">
-        <v>186.5450011173476</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502168</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K46" t="n">
         <v>156.1134623456949</v>
